--- a/extra-credit.xlsx
+++ b/extra-credit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5100492B-638A-E54E-9A4E-7C474A879696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93919E3-E6B8-B44E-9140-8E5330640A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
+    <workbookView xWindow="30460" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>10/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Neff is going to be arriving on campus about an hour before the seminar. If any students or faculty would like to meet with him beforehand, please reach out to Dr. Perez (vjperez@smcm.edu). If students or faculty want to join last minute, they will likely be meeting in the Schaefer Hall lobby before the seminar. </t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +626,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -632,6 +635,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>

--- a/extra-credit.xlsx
+++ b/extra-credit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93919E3-E6B8-B44E-9140-8E5330640A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB92136-6FD1-C04D-93AC-9DFC6EE80F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30460" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
+    <workbookView xWindow="30560" yWindow="4040" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve">Matt Neff is going to be arriving on campus about an hour before the seminar. If any students or faculty would like to meet with him beforehand, please reach out to Dr. Perez (vjperez@smcm.edu). If students or faculty want to join last minute, they will likely be meeting in the Schaefer Hall lobby before the seminar. </t>
+  </si>
+  <si>
+    <t>weeks of 10/7 and 10/14</t>
+  </si>
+  <si>
+    <t>Kent 320</t>
+  </si>
+  <si>
+    <t>Help Cassie clean and organize SAV fieldwork gear! Email me to set up a time. I'll need you to commit to at least a 2-hour time block.</t>
+  </si>
+  <si>
+    <t>email Cassie Gurbisz (cbgurbisz@smcm.edu)</t>
   </si>
 </sst>
 </file>
@@ -574,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFD22-4F07-8441-A442-CF2CABE86C15}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,71 +708,82 @@
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="6"/>
@@ -773,6 +796,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra-credit.xlsx
+++ b/extra-credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB92136-6FD1-C04D-93AC-9DFC6EE80F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AE711-6E65-C64A-ACCE-2559777FF6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30560" yWindow="4040" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>email Cassie Gurbisz (cbgurbisz@smcm.edu)</t>
+  </si>
+  <si>
+    <t>10/23-10/24</t>
+  </si>
+  <si>
+    <t>all day and night</t>
+  </si>
+  <si>
+    <t>Chesapeake Biological Laboratory pier</t>
+  </si>
+  <si>
+    <t>email Nina Santos (nsantos@umces.edu)</t>
+  </si>
+  <si>
+    <t>Mysid fest! Volunteer for a few hours to help the Woodland lab at CBL conduct mysid sampling at the CBL pier on Solomons Island</t>
   </si>
 </sst>
 </file>
@@ -586,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFD22-4F07-8441-A442-CF2CABE86C15}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,23 +785,37 @@
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="6"/>
@@ -799,6 +828,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra-credit.xlsx
+++ b/extra-credit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AE711-6E65-C64A-ACCE-2559777FF6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BB2D7-0AD7-2D4D-BF55-BC6AEA218766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30560" yWindow="4040" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Mysid fest! Volunteer for a few hours to help the Woodland lab at CBL conduct mysid sampling at the CBL pier on Solomons Island</t>
+  </si>
+  <si>
+    <t>11/9</t>
+  </si>
+  <si>
+    <t>1:00-4:00</t>
+  </si>
+  <si>
+    <t>Let Emma Green know if you can make it via email (emmasmrwa@gmail.com) or signing up via the [sign-up genius](https://www.signupgenius.com/go/10C0944A5AC2FA5F9C16-52918137-counting)</t>
+  </si>
+  <si>
+    <t>Spat counting with the St. Mary's River Watershed Association</t>
   </si>
 </sst>
 </file>
@@ -603,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFD22-4F07-8441-A442-CF2CABE86C15}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,7 +829,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/extra-credit.xlsx
+++ b/extra-credit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/ENST 392/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BB2D7-0AD7-2D4D-BF55-BC6AEA218766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427A850-CC31-3946-A785-39DB8D635113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="4040" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B17DDCBB-878B-CD43-887E-BB2526CFFA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>date</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Spat counting with the St. Mary's River Watershed Association</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>Calvert Marine Museum Harms Gallery</t>
+  </si>
+  <si>
+    <t>Dr. Bob Hazen free public lecture: A "missing" natural law of evolution: Minerals, fossils, and the second arrow of time</t>
+  </si>
+  <si>
+    <t>2:30</t>
   </si>
 </sst>
 </file>
@@ -616,13 +628,13 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="5" width="60.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -847,7 +859,19 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
